--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -780,9 +784,15 @@
       <c r="AD2" t="n">
         <v>3293512</v>
       </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>85.38869753624702</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>14.57507973251654</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03622273123644305</v>
+      </c>
       <c r="AH2" t="n">
         <v>43720</v>
       </c>
@@ -840,7 +850,9 @@
       <c r="AZ2" t="n">
         <v>2.15689066059225</v>
       </c>
-      <c r="BA2" t="inlineStr"/>
+      <c r="BA2" s="2" t="n">
+        <v>42564.625</v>
+      </c>
       <c r="BB2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -918,9 +930,15 @@
       <c r="AD3" t="n">
         <v>4855877</v>
       </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>88.77918448099076</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11.09329993325613</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.1274949921507485</v>
+      </c>
       <c r="AH3" t="n">
         <v>43330</v>
       </c>
@@ -978,8 +996,12 @@
       <c r="AZ3" t="n">
         <v>2.06898690985793</v>
       </c>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
+      <c r="BA3" s="2" t="n">
+        <v>42559.79166666666</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>42560</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1056,9 +1078,15 @@
       <c r="AD4" t="n">
         <v>12074534</v>
       </c>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>87.13985980742611</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11.9859449648326</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.8741703820619496</v>
+      </c>
       <c r="AH4" t="n">
         <v>53104</v>
       </c>
@@ -1116,8 +1144,12 @@
       <c r="AZ4" t="n">
         <v>2.09087253719341</v>
       </c>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
+      <c r="BA4" s="2" t="n">
+        <v>42556.11458333334</v>
+      </c>
+      <c r="BB4" s="2" t="n">
+        <v>42557.125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1194,9 +1226,15 @@
       <c r="AD5" t="n">
         <v>12074534</v>
       </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>87.13985980742611</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>11.9859449648326</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.8741703820619496</v>
+      </c>
       <c r="AH5" t="n">
         <v>53104</v>
       </c>
@@ -1254,8 +1292,12 @@
       <c r="AZ5" t="n">
         <v>2.09087253719341</v>
       </c>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
+      <c r="BA5" s="2" t="n">
+        <v>42560.73958333334</v>
+      </c>
+      <c r="BB5" s="2" t="n">
+        <v>42562.58333333334</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1328,9 +1370,15 @@
       <c r="AD6" t="n">
         <v>9299829</v>
       </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>86.27326373420414</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11.75735596858824</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.6589368471183717</v>
+      </c>
       <c r="AH6" t="n">
         <v>45102</v>
       </c>
@@ -1460,9 +1508,15 @@
       <c r="AD7" t="n">
         <v>2262753</v>
       </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>85.29596469433474</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13.83345862319042</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.2763005948948029</v>
+      </c>
       <c r="AH7" t="n">
         <v>33712</v>
       </c>
@@ -1592,9 +1646,15 @@
       <c r="AD8" t="n">
         <v>5282401</v>
       </c>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>89.89970659175628</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.345560853861718</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.09482430432676353</v>
+      </c>
       <c r="AH8" t="n">
         <v>49276</v>
       </c>
@@ -1736,9 +1796,15 @@
       <c r="AD9" t="n">
         <v>3382664</v>
       </c>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
+      <c r="AE9" t="n">
+        <v>88.26767896545445</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10.87447644814856</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.8576672114049755</v>
+      </c>
       <c r="AH9" t="n">
         <v>57796</v>
       </c>
@@ -1796,8 +1862,12 @@
       <c r="AZ9" t="n">
         <v>2.40539706583635</v>
       </c>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
+      <c r="BA9" s="2" t="n">
+        <v>42564.54166666666</v>
+      </c>
+      <c r="BB9" s="2" t="n">
+        <v>42564.54236111111</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1878,9 +1948,15 @@
       <c r="AD10" t="n">
         <v>6055013</v>
       </c>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AE10" t="n">
+        <v>88.11797761623303</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11.49592907562709</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3859942166928461</v>
+      </c>
       <c r="AH10" t="n">
         <v>50978</v>
       </c>
@@ -1938,8 +2014,12 @@
       <c r="AZ10" t="n">
         <v>1.22247796065488</v>
       </c>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
+      <c r="BA10" s="2" t="n">
+        <v>42574.63541666666</v>
+      </c>
+      <c r="BB10" s="2" t="n">
+        <v>42574.82847222222</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2018,9 +2098,15 @@
       <c r="AD11" t="n">
         <v>5106195</v>
       </c>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>86.63069075897023</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13.17243074344007</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.1968589135354212</v>
+      </c>
       <c r="AH11" t="n">
         <v>44194</v>
       </c>
@@ -2078,8 +2164,12 @@
       <c r="AZ11" t="n">
         <v>7.52893959382374</v>
       </c>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
+      <c r="BA11" s="2" t="n">
+        <v>42559.86805555555</v>
+      </c>
+      <c r="BB11" s="2" t="n">
+        <v>42560.80902777778</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2162,9 +2252,15 @@
       <c r="AD12" t="n">
         <v>5106195</v>
       </c>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
+      <c r="AE12" t="n">
+        <v>86.63069075897023</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13.17243074344007</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.1968589135354212</v>
+      </c>
       <c r="AH12" t="n">
         <v>44194</v>
       </c>
@@ -2222,8 +2318,12 @@
       <c r="AZ12" t="n">
         <v>7.52893959382374</v>
       </c>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
+      <c r="BA12" s="2" t="n">
+        <v>42558.24513888889</v>
+      </c>
+      <c r="BB12" s="2" t="n">
+        <v>42558.36111111111</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2296,9 +2396,15 @@
       <c r="AD13" t="n">
         <v>4105711</v>
       </c>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
+      <c r="AE13" t="n">
+        <v>86.73779036079256</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>12.5124978353323</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.3063294031167805</v>
+      </c>
       <c r="AH13" t="n">
         <v>42201</v>
       </c>
@@ -2440,9 +2546,15 @@
       <c r="AD14" t="n">
         <v>1962944</v>
       </c>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
+      <c r="AE14" t="n">
+        <v>86.94196064686511</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11.8032913827394</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1.25464608261876</v>
+      </c>
       <c r="AH14" t="n">
         <v>50751</v>
       </c>
@@ -2500,8 +2612,12 @@
       <c r="AZ14" t="n">
         <v>1.08559753605952</v>
       </c>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
+      <c r="BA14" s="2" t="n">
+        <v>42553.16666666666</v>
+      </c>
+      <c r="BB14" s="2" t="n">
+        <v>42555.02777777778</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2566,9 +2682,15 @@
       <c r="AD15" t="n">
         <v>377219</v>
       </c>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AE15" t="n">
+        <v>88.88258544771075</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>10.76722010291104</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.1465991903907279</v>
+      </c>
       <c r="AH15" t="n">
         <v>64013</v>
       </c>
@@ -2706,9 +2828,15 @@
       <c r="AD16" t="n">
         <v>473473</v>
       </c>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
+      <c r="AE16" t="n">
+        <v>88.54443653597987</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11.2711812500396</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.1843822139805227</v>
+      </c>
       <c r="AH16" t="n">
         <v>63578</v>
       </c>
@@ -2766,8 +2894,12 @@
       <c r="AZ16" t="n">
         <v>3.6560867818401</v>
       </c>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
+      <c r="BA16" s="2" t="n">
+        <v>42572.2625</v>
+      </c>
+      <c r="BB16" s="2" t="n">
+        <v>42572.61458333334</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2840,9 +2972,15 @@
       <c r="AD17" t="n">
         <v>3122909</v>
       </c>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
+      <c r="AE17" t="n">
+        <v>88.61113148029609</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.82484600095616</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.1719870799949662</v>
+      </c>
       <c r="AH17" t="n">
         <v>47456</v>
       </c>
@@ -2978,9 +3116,15 @@
       <c r="AD18" t="n">
         <v>2033942</v>
       </c>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
+      <c r="AE18" t="n">
+        <v>85.39176633355326</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.66936716976197</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.938866496684763</v>
+      </c>
       <c r="AH18" t="n">
         <v>44418</v>
       </c>
@@ -3038,8 +3182,12 @@
       <c r="AZ18" t="n">
         <v>1.86554886335999</v>
       </c>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
+      <c r="BA18" s="2" t="n">
+        <v>42565.61388888889</v>
+      </c>
+      <c r="BB18" s="2" t="n">
+        <v>42566.16666666666</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3112,9 +3260,15 @@
       <c r="AD19" t="n">
         <v>1379347</v>
       </c>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
+      <c r="AE19" t="n">
+        <v>83.93971930195954</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>14.13683431362812</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.9341376752912791</v>
+      </c>
       <c r="AH19" t="n">
         <v>40525</v>
       </c>
@@ -3254,9 +3408,15 @@
       <c r="AD20" t="n">
         <v>849763</v>
       </c>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AE20" t="n">
+        <v>84.06638086148726</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>12.65658777800399</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>3.277031360508754</v>
+      </c>
       <c r="AH20" t="n">
         <v>36256</v>
       </c>
@@ -3314,8 +3474,12 @@
       <c r="AZ20" t="n">
         <v>1.10806638825402</v>
       </c>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
+      <c r="BA20" s="2" t="n">
+        <v>42570.65625</v>
+      </c>
+      <c r="BB20" s="2" t="n">
+        <v>42570.81180555555</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3396,9 +3560,15 @@
       <c r="AD21" t="n">
         <v>849763</v>
       </c>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>84.06638086148726</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>12.65658777800399</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>3.277031360508754</v>
+      </c>
       <c r="AH21" t="n">
         <v>36256</v>
       </c>
@@ -3456,8 +3626,12 @@
       <c r="AZ21" t="n">
         <v>1.10806638825402</v>
       </c>
-      <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
+      <c r="BA21" s="2" t="n">
+        <v>42570.65625</v>
+      </c>
+      <c r="BB21" s="2" t="n">
+        <v>42570.80902777778</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3528,9 +3702,15 @@
       <c r="AD22" t="n">
         <v>366037</v>
       </c>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
+      <c r="AE22" t="n">
+        <v>84.69007231509383</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14.6731068170704</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.6368208678357652</v>
+      </c>
       <c r="AH22" t="n">
         <v>42913</v>
       </c>
@@ -3658,9 +3838,15 @@
       <c r="AD23" t="n">
         <v>273530</v>
       </c>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
+      <c r="AE23" t="n">
+        <v>84.28106606222352</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>13.91949694731839</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.3122143823346616</v>
+      </c>
       <c r="AH23" t="n">
         <v>57401</v>
       </c>
